--- a/va_facility_data_2025-02-20/North Platte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Platte%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North Platte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Platte%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb874b2a896104840a6f0d79bc464977b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2e3e8ed568654937bba8ab6372254d38"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9ddc9a45b84344438ac0ea3a2af9cfdc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2f625ba23fed4f84a1538a9902829699"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2492895e719a47d480f2c928fa44f5c8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Redee42e1319744e2abc7df2983ff8e64"/>
   </x:sheets>
 </x:workbook>
 </file>
